--- a/biology/Zoologie/Amytis_de_Rowley/Amytis_de_Rowley.xlsx
+++ b/biology/Zoologie/Amytis_de_Rowley/Amytis_de_Rowley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amytornis rowleyi
 L’Amytis de Rowley (Amytornis rowleyi)  est une espèce de passereaux de la famille des Maluridae. Cet oiseau vit dans le centre et l'est de l'Australie. L'espèce était considérée comme une sous-espèce d’Amytornis striatus jusqu'en 2013.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Amytornis rowleyi a été décrite pour la première fois en 1999 par les ornithologues australiens Richard Schodde et Ian J. Mason (d)[1] sous le protonyme Amytornis striatus rowleyi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Amytornis rowleyi a été décrite pour la première fois en 1999 par les ornithologues australiens Richard Schodde et Ian J. Mason (d) sous le protonyme Amytornis striatus rowleyi.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, rowleyi, lui a été donnée en l'honneur de l'ornithologue Ian Rowley (1926-2009).
 </t>
